--- a/Results/Classification/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 3 (37, 24, 6, 54, 21)/NODE_11nodes_Uniform0.05Virtual_Control(10, 5)_MDD(37, 24, 6, 54, 21)_100perPatient_batchsize100_200maxITER_StandardizeAll_smoothing0_dropout0.0.xlsx
+++ b/Results/Classification/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 3 (37, 24, 6, 54, 21)/NODE_11nodes_Uniform0.05Virtual_Control(10, 5)_MDD(37, 24, 6, 54, 21)_100perPatient_batchsize100_200maxITER_StandardizeAll_smoothing0_dropout0.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Iterations</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Success %</t>
+  </si>
+  <si>
+    <t>Label</t>
   </si>
   <si>
     <t>Control 10</t>
@@ -410,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,10 +438,13 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -447,105 +453,126 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.7733530291266414</v>
+        <v>0.7733547402766767</v>
       </c>
       <c r="E2">
-        <v>0.7733530291266414</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.7733547402766767</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4628932954373258</v>
+        <v>0.4628932610306368</v>
       </c>
       <c r="E3">
-        <v>0.4628932954373258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.4628932610306368</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.8500455055678732</v>
+        <v>0.850045552799631</v>
       </c>
       <c r="E4">
-        <v>0.1499544944321268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.149954447200369</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.4904009472332584</v>
+        <v>0.4904019979843523</v>
       </c>
       <c r="E5">
-        <v>0.5095990527667416</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.5095980020156476</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.4166842035642354</v>
+        <v>0.416684827695682</v>
       </c>
       <c r="E6">
-        <v>0.5833157964357646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.583315172304318</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.4628537381459971</v>
+        <v>0.4628539252836934</v>
       </c>
       <c r="E7">
-        <v>0.5371462618540029</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.5371460747163066</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.4012822220336223</v>
+        <v>0.4012822409728778</v>
       </c>
       <c r="E8">
-        <v>0.5987177779663777</v>
+        <v>0.5987177590271222</v>
       </c>
       <c r="F8">
-        <v>0.7913970351219177</v>
+        <v>0.7913972735404968</v>
       </c>
       <c r="G8">
         <v>0.2857142857142857</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>200</v>
@@ -559,10 +586,13 @@
       <c r="E9">
         <v>0.8238531234849754</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -573,10 +603,13 @@
       <c r="E10">
         <v>0.462270872991185</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -587,10 +620,13 @@
       <c r="E11">
         <v>0.1410666949188255</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -601,10 +637,13 @@
       <c r="E12">
         <v>0.5158507558879828</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -615,10 +654,13 @@
       <c r="E13">
         <v>0.5787908671845687</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -629,10 +671,13 @@
       <c r="E14">
         <v>0.539396668335389</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -648,6 +693,9 @@
       </c>
       <c r="G15">
         <v>0.2857142857142857</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
